--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisHN.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Lock: 203.162.69.75,30021</t>
   </si>
   <si>
-    <t>Thay  bộ nhớ</t>
-  </si>
-  <si>
     <t>Lỗi bộ nhớ, mất cấu hình</t>
   </si>
   <si>
@@ -382,6 +379,12 @@
   </si>
   <si>
     <t>NG, NSCFW</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thay  bộ nhớ (Đại lý báo không sửa)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -618,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,6 +884,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,34 +929,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,43 +1298,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -1346,58 +1379,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1422,24 +1455,24 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1493,7 +1526,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="62"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1548,7 +1581,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1634,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="62"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1673,7 @@
         <v>84</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="52"/>
@@ -1648,15 +1681,15 @@
         <v>77</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="50" t="s">
         <v>113</v>
-      </c>
-      <c r="R9" s="50" t="s">
-        <v>114</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1709,7 +1742,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
       <c r="U10" s="62"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1762,7 +1795,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
       <c r="U11" s="62"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1817,7 +1850,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
       <c r="U12" s="62"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1874,7 +1907,7 @@
       <c r="S13" s="82"/>
       <c r="T13" s="62"/>
       <c r="U13" s="62"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +1962,7 @@
       <c r="S14" s="82"/>
       <c r="T14" s="62"/>
       <c r="U14" s="62"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1958,7 +1991,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="62"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +2020,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="62"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3221,10 +3254,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3253,8 +3286,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3280,8 +3313,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4568,6 +4601,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4578,16 +4621,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4630,43 +4663,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -4711,58 +4744,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4787,24 +4820,24 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4839,10 +4872,10 @@
         <v>95</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
@@ -4856,11 +4889,11 @@
         <v>24</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4896,10 +4929,10 @@
         <v>94</v>
       </c>
       <c r="L7" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>108</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>109</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="52"/>
@@ -4913,11 +4946,11 @@
         <v>24</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4946,7 +4979,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4975,7 +5008,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="85"/>
       <c r="U9" s="85"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -5004,7 +5037,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5033,7 +5066,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5062,7 +5095,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5093,7 +5126,7 @@
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5122,7 +5155,7 @@
       <c r="S14" s="82"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5151,7 +5184,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="85"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5180,7 +5213,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="85"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6414,10 +6447,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6446,8 +6479,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6473,8 +6506,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7761,6 +7794,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7771,16 +7814,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7791,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7823,43 +7856,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -7904,58 +7937,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7980,72 +8013,74 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="103">
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="106">
         <v>863586032942116</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="52" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="54">
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="109">
         <v>120000</v>
       </c>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52" t="s">
+      <c r="O6" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="103"/>
       <c r="T6" s="27"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8083,10 +8118,10 @@
         <v>98</v>
       </c>
       <c r="L7" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>105</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>106</v>
       </c>
       <c r="N7" s="54"/>
       <c r="O7" s="52"/>
@@ -8097,12 +8132,12 @@
         <v>18</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8134,7 +8169,7 @@
         <v>98</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" s="52" t="s">
         <v>38</v>
@@ -8153,7 +8188,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8178,14 +8213,14 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M9" s="52" t="s">
         <v>38</v>
@@ -8204,7 +8239,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="85"/>
       <c r="U9" s="85"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8233,7 +8268,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8262,7 +8297,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8282,7 +8317,7 @@
       <c r="J12" s="52"/>
       <c r="K12" s="79"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="52"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="54"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
@@ -8291,7 +8326,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8312,7 +8347,6 @@
       <c r="I13" s="78"/>
       <c r="J13" s="52"/>
       <c r="K13" s="79"/>
-      <c r="L13" s="55"/>
       <c r="M13" s="52"/>
       <c r="N13" s="81"/>
       <c r="O13" s="52"/>
@@ -8322,7 +8356,7 @@
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8351,7 +8385,7 @@
       <c r="S14" s="82"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8380,7 +8414,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="85"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8409,7 +8443,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="85"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9179,7 +9213,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9643,10 +9677,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9675,8 +9709,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9702,8 +9736,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -9820,7 +9854,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10990,6 +11024,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11000,16 +11044,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11052,43 +11086,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11133,58 +11167,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11209,24 +11243,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11252,7 +11286,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11283,7 +11317,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11312,7 +11346,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11341,7 +11375,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11370,7 +11404,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11399,7 +11433,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11428,7 +11462,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11459,7 +11493,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11488,7 +11522,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11517,7 +11551,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11546,7 +11580,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12780,10 +12814,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12812,8 +12846,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12839,8 +12873,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14127,6 +14161,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14137,16 +14181,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Thiết bị không nhận sim</t>
   </si>
   <si>
-    <t>Khởi tạo lại module GSM/GPS</t>
-  </si>
-  <si>
     <t>Tùng</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
   </si>
   <si>
     <t>Bung via connector nguồn</t>
-  </si>
-  <si>
-    <t>Hang lại chân connector</t>
   </si>
   <si>
     <t>Lock: 203.162.69.75,30000</t>
@@ -385,6 +379,21 @@
   </si>
   <si>
     <t>Thay  bộ nhớ (Đại lý báo không sửa)</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Hang lại chân connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>25/12/2020</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -884,28 +893,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,34 +938,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,43 +1307,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -1379,58 +1388,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1455,24 +1464,24 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1481,7 +1490,9 @@
       <c r="B6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
@@ -1507,15 +1518,17 @@
         <v>72</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M6" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="52" t="s">
         <v>76</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52" t="s">
-        <v>77</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
@@ -1540,7 +1553,9 @@
       <c r="B7" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>44</v>
       </c>
@@ -1555,22 +1570,26 @@
         <v>74</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="52"/>
+        <v>80</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K7" s="55" t="s">
         <v>72</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="54"/>
-      <c r="O7" s="52"/>
+      <c r="O7" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P7" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>19</v>
@@ -1593,7 +1612,9 @@
       <c r="B8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>44</v>
       </c>
@@ -1608,22 +1629,26 @@
         <v>74</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="52"/>
+        <v>81</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K8" s="55" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M8" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="54"/>
-      <c r="O8" s="52"/>
+      <c r="O8" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P8" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>19</v>
@@ -1646,7 +1671,9 @@
       <c r="B9" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>44</v>
       </c>
@@ -1661,30 +1688,32 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>91</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>93</v>
       </c>
       <c r="K9" s="68" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="50" t="s">
         <v>111</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R9" s="50" t="s">
-        <v>113</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
@@ -1701,7 +1730,9 @@
       <c r="B10" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1716,22 +1747,26 @@
       </c>
       <c r="H10" s="64"/>
       <c r="I10" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="52"/>
+        <v>88</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K10" s="79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N10" s="54"/>
-      <c r="O10" s="52"/>
+      <c r="O10" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P10" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>19</v>
@@ -1754,7 +1789,9 @@
       <c r="B11" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" s="50" t="s">
         <v>44</v>
       </c>
@@ -1769,22 +1806,26 @@
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="52"/>
+        <v>84</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K11" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
+      <c r="O11" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P11" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>19</v>
@@ -1807,7 +1848,9 @@
       <c r="B12" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" s="50" t="s">
         <v>44</v>
       </c>
@@ -1824,22 +1867,26 @@
         <v>74</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="52"/>
+        <v>90</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K12" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M12" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
+      <c r="O12" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P12" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>19</v>
@@ -1864,7 +1911,9 @@
       <c r="B13" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" s="50" t="s">
         <v>44</v>
       </c>
@@ -1881,22 +1930,26 @@
         <v>74</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="52"/>
+        <v>86</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K13" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N13" s="81"/>
-      <c r="O13" s="52"/>
+      <c r="O13" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P13" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>19</v>
@@ -1919,7 +1972,9 @@
       <c r="B14" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D14" s="50" t="s">
         <v>44</v>
       </c>
@@ -1934,24 +1989,26 @@
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="82" t="s">
-        <v>80</v>
-      </c>
       <c r="K14" s="79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="N14" s="82"/>
-      <c r="O14" s="52"/>
+      <c r="O14" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P14" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="80" t="s">
         <v>18</v>
@@ -4601,6 +4658,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4611,16 +4678,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4631,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4663,43 +4720,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -4744,58 +4801,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4820,24 +4877,24 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4846,7 +4903,9 @@
       <c r="B6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>46</v>
       </c>
@@ -4863,24 +4922,26 @@
         <v>74</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>75</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
+      <c r="O6" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P6" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>18</v>
@@ -4889,7 +4950,7 @@
         <v>24</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="85"/>
@@ -4907,7 +4968,9 @@
       <c r="B7" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="77" t="s">
+        <v>117</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -4920,24 +4983,26 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N7" s="54"/>
-      <c r="O7" s="52"/>
+      <c r="O7" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P7" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>18</v>
@@ -4946,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="85"/>
@@ -7794,6 +7859,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7804,16 +7879,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7824,8 +7889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7856,43 +7921,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="65"/>
@@ -7937,58 +8002,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8013,71 +8078,73 @@
       <c r="I5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103">
+      <c r="A6" s="86">
         <v>1</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105" t="s">
+      <c r="C6" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="89">
         <v>863586032942116</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="109">
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="92">
         <v>120000</v>
       </c>
-      <c r="O6" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="110" t="s">
+      <c r="O6" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="105" t="s">
+      <c r="R6" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="103"/>
+      <c r="S6" s="86"/>
       <c r="T6" s="27"/>
       <c r="U6" s="85"/>
       <c r="V6" s="94" t="s">
@@ -8094,7 +8161,9 @@
       <c r="B7" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="87" t="s">
+        <v>117</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>47</v>
       </c>
@@ -8109,30 +8178,32 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N7" s="54"/>
-      <c r="O7" s="52"/>
+      <c r="O7" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P7" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
@@ -8149,7 +8220,9 @@
       <c r="B8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="87" t="s">
+        <v>117</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -8162,22 +8235,26 @@
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="52"/>
+        <v>98</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K8" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M8" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="54"/>
-      <c r="O8" s="52"/>
+      <c r="O8" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P8" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>19</v>
@@ -8200,7 +8277,9 @@
       <c r="B9" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="87" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>47</v>
       </c>
@@ -8213,22 +8292,26 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="52"/>
+        <v>101</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="K9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="55" t="s">
         <v>102</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>104</v>
       </c>
       <c r="M9" s="52" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
+      <c r="O9" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="P9" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>19</v>
@@ -11024,6 +11107,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11034,16 +11127,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11086,43 +11169,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11167,58 +11250,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11243,24 +11326,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14161,6 +14244,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14171,16 +14264,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_TarisHN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -776,9 +776,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,6 +869,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,34 +914,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M14"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1241,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1265,46 +1259,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="65"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -1329,7 +1323,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="66"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1346,109 +1340,109 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1458,7 @@
       <c r="H6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="66" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="52" t="s">
@@ -1473,13 +1467,13 @@
       <c r="K6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M6" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52" t="s">
         <v>77</v>
@@ -1492,8 +1486,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="86" t="s">
+      <c r="U6" s="61"/>
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1504,10 +1498,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="50" t="s">
         <v>44</v>
       </c>
@@ -1521,20 +1515,20 @@
       <c r="H7" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="52"/>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
         <v>77</v>
@@ -1547,8 +1541,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="87"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1557,10 +1551,10 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="50" t="s">
         <v>44</v>
       </c>
@@ -1574,20 +1568,20 @@
       <c r="H8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="66" t="s">
         <v>83</v>
       </c>
       <c r="J8" s="52"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
         <v>77</v>
@@ -1600,8 +1594,8 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="87"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1610,10 +1604,10 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="50" t="s">
         <v>44</v>
       </c>
@@ -1627,22 +1621,22 @@
         <v>68</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="66" t="s">
         <v>91</v>
       </c>
       <c r="J9" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M9" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52" t="s">
         <v>77</v>
@@ -1654,9 +1648,9 @@
         <v>114</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="87"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1665,10 +1659,10 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1681,21 +1675,21 @@
       <c r="G10" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="62"/>
+      <c r="I10" s="66" t="s">
         <v>90</v>
       </c>
       <c r="J10" s="52"/>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52" t="s">
         <v>77</v>
@@ -1707,9 +1701,9 @@
         <v>24</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="87"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1718,10 +1712,10 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="50" t="s">
         <v>44</v>
       </c>
@@ -1735,20 +1729,20 @@
         <v>66</v>
       </c>
       <c r="H11" s="50"/>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="66" t="s">
         <v>86</v>
       </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M11" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52" t="s">
         <v>77</v>
@@ -1760,9 +1754,9 @@
         <v>24</v>
       </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="87"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1771,10 +1765,10 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="50" t="s">
         <v>44</v>
       </c>
@@ -1790,20 +1784,20 @@
       <c r="H12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="66" t="s">
         <v>92</v>
       </c>
       <c r="J12" s="52"/>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52" t="s">
         <v>77</v>
@@ -1815,9 +1809,9 @@
         <v>24</v>
       </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="86" t="s">
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1828,10 +1822,10 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="50" t="s">
         <v>44</v>
       </c>
@@ -1847,20 +1841,20 @@
       <c r="H13" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="76" t="s">
         <v>88</v>
       </c>
       <c r="J13" s="52"/>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="81"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
         <v>77</v>
@@ -1871,10 +1865,10 @@
       <c r="R13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="82"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="87"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1883,10 +1877,10 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="50" t="s">
         <v>44</v>
       </c>
@@ -1900,36 +1894,36 @@
         <v>66</v>
       </c>
       <c r="H14" s="50"/>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="79" t="s">
+      <c r="K14" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="54" t="s">
         <v>84</v>
       </c>
       <c r="M14" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="82"/>
+      <c r="N14" s="80"/>
       <c r="O14" s="52"/>
       <c r="P14" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="80" t="s">
+      <c r="Q14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="R14" s="79" t="s">
+      <c r="R14" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="82"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="87"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1938,27 +1932,27 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="69"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="62"/>
+      <c r="T15" s="61"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1967,27 +1961,27 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="70"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="62"/>
+      <c r="T16" s="61"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1996,44 +1990,44 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="71"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="62"/>
+      <c r="T17" s="61"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="62"/>
+      <c r="V17" s="61"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="70"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="55"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="52"/>
@@ -2041,7 +2035,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="62"/>
+      <c r="T18" s="61"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -2050,14 +2044,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2068,9 +2062,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="62"/>
+      <c r="T19" s="61"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="18" t="s">
@@ -2081,14 +2075,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="50"/>
       <c r="E20" s="51"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="70"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2099,7 +2093,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="62"/>
+      <c r="T20" s="61"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -2113,14 +2107,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2131,7 +2125,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="62"/>
+      <c r="T21" s="61"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -2145,14 +2139,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2163,7 +2157,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="62"/>
+      <c r="T22" s="61"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -2177,14 +2171,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2195,7 +2189,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="62"/>
+      <c r="T23" s="61"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -2204,14 +2198,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2222,7 +2216,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="62"/>
+      <c r="T24" s="61"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -2231,14 +2225,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2249,9 +2243,9 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="62"/>
+      <c r="T25" s="61"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -2269,7 +2263,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="72"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2280,7 +2274,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="62"/>
+      <c r="T26" s="61"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -2301,7 +2295,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2312,7 +2306,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="62"/>
+      <c r="T27" s="61"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -2333,7 +2327,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="70"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2344,7 +2338,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="62"/>
+      <c r="T28" s="61"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -2365,7 +2359,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2376,7 +2370,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="62"/>
+      <c r="T29" s="61"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -2397,7 +2391,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="70"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2408,7 +2402,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="62"/>
+      <c r="T30" s="61"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -2429,7 +2423,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2440,7 +2434,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="62"/>
+      <c r="T31" s="61"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -2461,7 +2455,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="70"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2472,7 +2466,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="62"/>
+      <c r="T32" s="61"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -2493,7 +2487,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2504,7 +2498,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="62"/>
+      <c r="T33" s="61"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -2525,7 +2519,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2536,7 +2530,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="62"/>
+      <c r="T34" s="61"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -2557,7 +2551,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="70"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2568,7 +2562,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="62"/>
+      <c r="T35" s="61"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -2589,7 +2583,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="70"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2600,7 +2594,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="62"/>
+      <c r="T36" s="61"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -2621,7 +2615,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="70"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2632,7 +2626,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="62"/>
+      <c r="T37" s="61"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -2653,7 +2647,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="70"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2664,7 +2658,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="62"/>
+      <c r="T38" s="61"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -2680,7 +2674,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="70"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2691,7 +2685,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="62"/>
+      <c r="T39" s="61"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -2707,7 +2701,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="70"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2718,7 +2712,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="62"/>
+      <c r="T40" s="61"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -2739,7 +2733,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="70"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2750,7 +2744,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="62"/>
+      <c r="T41" s="61"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -2771,7 +2765,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="70"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2782,7 +2776,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="62"/>
+      <c r="T42" s="61"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -2798,7 +2792,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="70"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2809,7 +2803,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="62"/>
+      <c r="T43" s="61"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -2825,7 +2819,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="70"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2838,10 +2832,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2856,7 +2850,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="70"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2888,7 +2882,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="70"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2920,7 +2914,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="70"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2952,7 +2946,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="70"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2984,7 +2978,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="70"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3011,12 +3005,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="61"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="73"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -3025,7 +3019,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="61"/>
+      <c r="R50" s="60"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -3048,7 +3042,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="70"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3080,7 +3074,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="74"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -3112,7 +3106,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="74"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -3144,7 +3138,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="75"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -3176,7 +3170,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="74"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -3208,7 +3202,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="74"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -3221,10 +3215,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3240,7 +3234,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="74"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -3253,8 +3247,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3267,7 +3261,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="74"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -3280,8 +3274,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3294,7 +3288,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="74"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -3321,7 +3315,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="74"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -3348,7 +3342,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="74"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -3380,7 +3374,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="74"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -3412,7 +3406,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="74"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -3439,7 +3433,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="74"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -3466,7 +3460,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="74"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -3493,7 +3487,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="74"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -3520,7 +3514,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="74"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -3550,7 +3544,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="74"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -3577,7 +3571,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="74"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -3604,7 +3598,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="74"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -3631,7 +3625,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="74"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -3658,7 +3652,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="74"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -3685,7 +3679,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="74"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -3712,7 +3706,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="74"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3739,7 +3733,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="74"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -3766,7 +3760,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="74"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3793,7 +3787,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="74"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3820,7 +3814,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="74"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3847,7 +3841,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="74"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -3874,7 +3868,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="74"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -3901,7 +3895,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="74"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -3928,7 +3922,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="74"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -3955,7 +3949,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="74"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -3982,7 +3976,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="74"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -4009,7 +4003,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="74"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -4036,7 +4030,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="74"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -4063,7 +4057,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="74"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -4090,7 +4084,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="74"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -4117,7 +4111,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="74"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -4144,7 +4138,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="74"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -4171,7 +4165,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="74"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -4198,7 +4192,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="74"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -4225,7 +4219,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="74"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -4252,7 +4246,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="74"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -4279,7 +4273,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="74"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -4306,7 +4300,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="74"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -4333,7 +4327,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="74"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -4360,7 +4354,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="74"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -4387,7 +4381,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="74"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -4414,7 +4408,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="74"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -4441,7 +4435,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="74"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4468,7 +4462,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="74"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -4495,7 +4489,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="74"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -4522,7 +4516,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="74"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -4549,7 +4543,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="74"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -4568,6 +4562,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4578,16 +4582,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4598,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4612,7 +4606,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4630,46 +4624,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="65"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -4694,7 +4688,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="66"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -4711,109 +4705,109 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="50" t="s">
         <v>46</v>
       </c>
@@ -4829,7 +4823,7 @@
       <c r="H6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="66" t="s">
         <v>96</v>
       </c>
       <c r="J6" s="52" t="s">
@@ -4838,13 +4832,13 @@
       <c r="K6" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>111</v>
       </c>
       <c r="M6" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52" t="s">
         <v>77</v>
@@ -4859,8 +4853,8 @@
         <v>110</v>
       </c>
       <c r="T6" s="27"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="86" t="s">
+      <c r="U6" s="83"/>
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4871,10 +4865,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="50" t="s">
         <v>46</v>
       </c>
@@ -4886,22 +4880,22 @@
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>97</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>108</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
         <v>77</v>
@@ -4916,8 +4910,8 @@
         <v>110</v>
       </c>
       <c r="T7" s="27"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="87"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4926,27 +4920,27 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="68"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="50"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="87"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4955,27 +4949,27 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
-      <c r="I9" s="68"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="87"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4984,27 +4978,27 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="50"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="87"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5013,27 +5007,27 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="68"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="87"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5042,27 +5036,27 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="68"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="52"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="55"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="86" t="s">
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5073,27 +5067,27 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="78"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="55"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="81"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="87"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5102,27 +5096,27 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="55"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="82"/>
+      <c r="N14" s="80"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="87"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5131,27 +5125,27 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="69"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="85"/>
+      <c r="T15" s="83"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5160,27 +5154,27 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="70"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="85"/>
+      <c r="T16" s="83"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5189,44 +5183,44 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="71"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="85"/>
+      <c r="T17" s="83"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="85"/>
+      <c r="V17" s="83"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="70"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="55"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="52"/>
@@ -5234,7 +5228,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="85"/>
+      <c r="T18" s="83"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -5243,14 +5237,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5261,9 +5255,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="85"/>
+      <c r="T19" s="83"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="18" t="s">
@@ -5274,14 +5268,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="50"/>
       <c r="E20" s="51"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="70"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5292,7 +5286,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="85"/>
+      <c r="T20" s="83"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -5306,14 +5300,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -5324,7 +5318,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="85"/>
+      <c r="T21" s="83"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -5338,14 +5332,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -5356,7 +5350,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="85"/>
+      <c r="T22" s="83"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -5370,14 +5364,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -5388,7 +5382,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="85"/>
+      <c r="T23" s="83"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -5397,14 +5391,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -5415,7 +5409,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="85"/>
+      <c r="T24" s="83"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -5424,14 +5418,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -5442,9 +5436,9 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="85"/>
+      <c r="T25" s="83"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -5462,7 +5456,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="72"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5473,7 +5467,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="85"/>
+      <c r="T26" s="83"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -5494,7 +5488,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5505,7 +5499,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="85"/>
+      <c r="T27" s="83"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -5526,7 +5520,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="70"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5537,7 +5531,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="85"/>
+      <c r="T28" s="83"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -5558,7 +5552,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5569,7 +5563,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="85"/>
+      <c r="T29" s="83"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -5590,7 +5584,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="70"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5601,7 +5595,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="85"/>
+      <c r="T30" s="83"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -5622,7 +5616,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5633,7 +5627,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="85"/>
+      <c r="T31" s="83"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -5654,7 +5648,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="70"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5665,7 +5659,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="85"/>
+      <c r="T32" s="83"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -5686,7 +5680,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5697,7 +5691,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="85"/>
+      <c r="T33" s="83"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -5718,7 +5712,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5729,7 +5723,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="85"/>
+      <c r="T34" s="83"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -5750,7 +5744,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="70"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5761,7 +5755,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="85"/>
+      <c r="T35" s="83"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -5782,7 +5776,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="70"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5793,7 +5787,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="85"/>
+      <c r="T36" s="83"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -5814,7 +5808,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="70"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5825,7 +5819,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="85"/>
+      <c r="T37" s="83"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -5846,7 +5840,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="70"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5857,7 +5851,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="85"/>
+      <c r="T38" s="83"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -5873,7 +5867,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="70"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5884,7 +5878,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="85"/>
+      <c r="T39" s="83"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -5900,7 +5894,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="70"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5911,7 +5905,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="85"/>
+      <c r="T40" s="83"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -5932,7 +5926,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="70"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5943,7 +5937,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="85"/>
+      <c r="T41" s="83"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -5964,7 +5958,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="70"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5975,7 +5969,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="85"/>
+      <c r="T42" s="83"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -5991,7 +5985,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="70"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6002,7 +5996,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="85"/>
+      <c r="T43" s="83"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -6018,7 +6012,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="70"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6031,10 +6025,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6049,7 +6043,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="70"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6081,7 +6075,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="70"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6113,7 +6107,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="70"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6145,7 +6139,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="70"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6177,7 +6171,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="70"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6204,12 +6198,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="84"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="73"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -6218,7 +6212,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="84"/>
+      <c r="R50" s="82"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -6241,7 +6235,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="70"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6273,7 +6267,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="74"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -6305,7 +6299,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="74"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -6337,7 +6331,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="75"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -6369,7 +6363,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="74"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -6401,7 +6395,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="74"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -6414,10 +6408,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6433,7 +6427,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="74"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -6446,8 +6440,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6460,7 +6454,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="74"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -6473,8 +6467,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6487,7 +6481,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="74"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -6514,7 +6508,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="74"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -6541,7 +6535,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="74"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -6573,7 +6567,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="74"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -6605,7 +6599,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="74"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -6632,7 +6626,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="74"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -6659,7 +6653,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="74"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -6686,7 +6680,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="74"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -6713,7 +6707,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="74"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -6743,7 +6737,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="74"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -6770,7 +6764,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="74"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -6797,7 +6791,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="74"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -6824,7 +6818,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="74"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -6851,7 +6845,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="74"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -6878,7 +6872,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="74"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -6905,7 +6899,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="74"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -6932,7 +6926,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="74"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -6959,7 +6953,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="74"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -6986,7 +6980,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="74"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -7013,7 +7007,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="74"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -7040,7 +7034,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="74"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -7067,7 +7061,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="74"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -7094,7 +7088,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="74"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -7121,7 +7115,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="74"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -7148,7 +7142,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="74"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -7175,7 +7169,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="74"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -7202,7 +7196,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="74"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -7229,7 +7223,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="74"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -7256,7 +7250,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="74"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -7283,7 +7277,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="74"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -7310,7 +7304,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="74"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -7337,7 +7331,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="74"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -7364,7 +7358,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="74"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -7391,7 +7385,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="74"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -7418,7 +7412,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="74"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -7445,7 +7439,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="74"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -7472,7 +7466,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="74"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -7499,7 +7493,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="74"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -7526,7 +7520,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="74"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -7553,7 +7547,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="74"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -7580,7 +7574,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="74"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -7607,7 +7601,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="74"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -7634,7 +7628,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="74"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -7661,7 +7655,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="74"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -7688,7 +7682,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="74"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -7715,7 +7709,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="74"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -7742,7 +7736,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="74"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -7761,6 +7755,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7771,16 +7775,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7791,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="I2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7805,7 +7799,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="76" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -7823,46 +7817,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="65"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -7887,7 +7881,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="66"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -7904,109 +7898,109 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="89"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="77"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="50" t="s">
         <v>47</v>
       </c>
@@ -8019,17 +8013,17 @@
       <c r="G6" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="68"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="52" t="s">
         <v>102</v>
       </c>
       <c r="K6" s="52"/>
-      <c r="L6" s="55"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="53">
         <v>120000</v>
       </c>
       <c r="O6" s="52"/>
@@ -8044,8 +8038,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="86" t="s">
+      <c r="U6" s="83"/>
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8056,10 +8050,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="50" t="s">
         <v>47</v>
       </c>
@@ -8073,22 +8067,22 @@
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>99</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>105</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
         <v>77</v>
@@ -8101,8 +8095,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="87"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8111,10 +8105,10 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="50" t="s">
         <v>47</v>
       </c>
@@ -8126,20 +8120,20 @@
         <v>66</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="66" t="s">
         <v>100</v>
       </c>
       <c r="J8" s="52"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="54" t="s">
         <v>105</v>
       </c>
       <c r="M8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
         <v>77</v>
@@ -8152,8 +8146,8 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="87"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8162,10 +8156,10 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="50" t="s">
         <v>47</v>
       </c>
@@ -8177,20 +8171,20 @@
         <v>66</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="66" t="s">
         <v>104</v>
       </c>
       <c r="J9" s="52"/>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>105</v>
       </c>
       <c r="M9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52" t="s">
         <v>77</v>
@@ -8202,9 +8196,9 @@
         <v>24</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="87"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8213,27 +8207,27 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="68"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="50"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="87"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8242,27 +8236,27 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="68"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="87"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8271,27 +8265,27 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="68"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="52"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="55"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="86" t="s">
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8302,27 +8296,27 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="78"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="55"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="81"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="87"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8331,27 +8325,27 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="55"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="82"/>
+      <c r="N14" s="80"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="87"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8360,27 +8354,27 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="69"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="85"/>
+      <c r="T15" s="83"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8389,27 +8383,27 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="70"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="85"/>
+      <c r="T16" s="83"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8418,44 +8412,44 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="50"/>
       <c r="E17" s="51"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="71"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="79"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="85"/>
+      <c r="T17" s="83"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="85"/>
+      <c r="V17" s="83"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="70"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="55"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="52"/>
@@ -8463,7 +8457,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="85"/>
+      <c r="T18" s="83"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -8472,14 +8466,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -8490,9 +8484,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="85"/>
+      <c r="T19" s="83"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="18" t="s">
@@ -8503,14 +8497,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="50"/>
       <c r="E20" s="51"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="70"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -8521,7 +8515,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="85"/>
+      <c r="T20" s="83"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -8535,14 +8529,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="72"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -8553,7 +8547,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="85"/>
+      <c r="T21" s="83"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -8567,14 +8561,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="72"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -8585,7 +8579,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="85"/>
+      <c r="T22" s="83"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -8599,14 +8593,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -8617,7 +8611,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="85"/>
+      <c r="T23" s="83"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -8626,14 +8620,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -8644,7 +8638,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="85"/>
+      <c r="T24" s="83"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -8653,14 +8647,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -8671,9 +8665,9 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="85"/>
+      <c r="T25" s="83"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -8691,7 +8685,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="72"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -8702,7 +8696,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="85"/>
+      <c r="T26" s="83"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -8723,7 +8717,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="72"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -8734,7 +8728,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="85"/>
+      <c r="T27" s="83"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -8755,7 +8749,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="70"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -8766,7 +8760,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="85"/>
+      <c r="T28" s="83"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -8787,7 +8781,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -8798,7 +8792,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="85"/>
+      <c r="T29" s="83"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -8819,7 +8813,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="70"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -8830,7 +8824,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="85"/>
+      <c r="T30" s="83"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -8851,7 +8845,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -8862,7 +8856,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="85"/>
+      <c r="T31" s="83"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -8883,7 +8877,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="70"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -8894,7 +8888,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="85"/>
+      <c r="T32" s="83"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -8915,7 +8909,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -8926,7 +8920,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="85"/>
+      <c r="T33" s="83"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -8947,7 +8941,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -8958,7 +8952,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="85"/>
+      <c r="T34" s="83"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -8979,7 +8973,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="70"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -8990,7 +8984,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="85"/>
+      <c r="T35" s="83"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -9011,7 +9005,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="70"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -9022,7 +9016,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="85"/>
+      <c r="T36" s="83"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -9043,7 +9037,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="70"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -9054,7 +9048,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="85"/>
+      <c r="T37" s="83"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -9075,7 +9069,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="70"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -9086,7 +9080,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="85"/>
+      <c r="T38" s="83"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -9102,7 +9096,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="70"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -9113,7 +9107,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="85"/>
+      <c r="T39" s="83"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -9129,7 +9123,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="70"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -9140,7 +9134,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="85"/>
+      <c r="T40" s="83"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -9161,7 +9155,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="70"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -9172,7 +9166,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="85"/>
+      <c r="T41" s="83"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -9193,7 +9187,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="70"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -9204,7 +9198,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="85"/>
+      <c r="T42" s="83"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -9220,7 +9214,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="70"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -9231,7 +9225,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="85"/>
+      <c r="T43" s="83"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -9247,7 +9241,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="70"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -9260,10 +9254,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9278,7 +9272,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="70"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -9310,7 +9304,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="70"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -9342,7 +9336,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="70"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -9374,7 +9368,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="70"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -9406,7 +9400,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="70"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -9433,12 +9427,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="84"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="73"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -9447,7 +9441,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="84"/>
+      <c r="R50" s="82"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -9470,7 +9464,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="70"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -9502,7 +9496,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="74"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -9534,7 +9528,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="74"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -9566,7 +9560,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="75"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -9598,7 +9592,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="74"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -9630,7 +9624,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="74"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -9643,10 +9637,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9662,7 +9656,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="74"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -9675,8 +9669,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9689,7 +9683,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="74"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -9702,8 +9696,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -9716,7 +9710,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="74"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -9743,7 +9737,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="74"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -9770,7 +9764,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="74"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -9802,7 +9796,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="74"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -9834,7 +9828,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="74"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -9861,7 +9855,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="74"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -9888,7 +9882,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="74"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -9915,7 +9909,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="74"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -9942,7 +9936,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="74"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -9972,7 +9966,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="74"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -9999,7 +9993,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="74"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -10026,7 +10020,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="74"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -10053,7 +10047,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="74"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -10080,7 +10074,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="74"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -10107,7 +10101,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="74"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -10134,7 +10128,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="74"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -10161,7 +10155,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="74"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -10188,7 +10182,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="74"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -10215,7 +10209,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="74"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -10242,7 +10236,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="74"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -10269,7 +10263,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="74"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -10296,7 +10290,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="74"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -10323,7 +10317,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="74"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -10350,7 +10344,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="74"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -10377,7 +10371,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="74"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -10404,7 +10398,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="74"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -10431,7 +10425,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="74"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -10458,7 +10452,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="74"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -10485,7 +10479,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="74"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -10512,7 +10506,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="74"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -10539,7 +10533,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="74"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -10566,7 +10560,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="74"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -10593,7 +10587,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="74"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -10620,7 +10614,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="74"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -10647,7 +10641,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="74"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -10674,7 +10668,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="74"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -10701,7 +10695,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="74"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -10728,7 +10722,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="74"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -10755,7 +10749,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="74"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -10782,7 +10776,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="74"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -10809,7 +10803,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="74"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -10836,7 +10830,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="74"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -10863,7 +10857,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="74"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -10890,7 +10884,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="74"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -10917,7 +10911,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="74"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -10944,7 +10938,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="74"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -10971,7 +10965,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="74"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -10990,6 +10984,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11000,16 +11004,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11020,8 +11014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11052,43 +11046,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11133,58 +11127,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="101" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="99" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11209,50 +11203,78 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="54"/>
+      <c r="B6" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>868183037830440</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="53"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="P6" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>37</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11263,27 +11285,51 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="51">
+        <v>868183038016445</v>
+      </c>
       <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
+      <c r="G7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>82</v>
+      </c>
       <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="2"/>
+      <c r="K7" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="53"/>
       <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="P7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="93"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11292,27 +11338,51 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="51">
+        <v>868183038083288</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
+      <c r="G8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>83</v>
+      </c>
       <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="2"/>
+      <c r="K8" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="53"/>
       <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="P8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11321,27 +11391,53 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
+      <c r="B9" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="51">
+        <v>860157040200971</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="53"/>
       <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="P9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11350,27 +11446,51 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
+      <c r="B10" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="51">
+        <v>868183038489535</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="66" t="s">
+        <v>90</v>
+      </c>
       <c r="J10" s="52"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="2"/>
+      <c r="K10" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="53"/>
       <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
+      <c r="P10" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="93"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11379,27 +11499,51 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="B11" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868183034687983</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="66" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
+      <c r="K11" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="53"/>
       <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
+      <c r="P11" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="93"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11408,27 +11552,53 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
+      <c r="B12" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868183035891758</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>92</v>
+      </c>
       <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
+      <c r="K12" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="53"/>
       <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
+      <c r="P12" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11439,27 +11609,53 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="68"/>
+      <c r="B13" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868183034590021</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="76" t="s">
+        <v>88</v>
+      </c>
       <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="54"/>
+      <c r="K13" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="79"/>
       <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="50"/>
+      <c r="P13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="93"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11468,27 +11664,53 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868183033869756</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="50"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="2"/>
+      <c r="I14" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="80"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="55"/>
+      <c r="P14" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>31</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11497,27 +11719,57 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
+      <c r="B15" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="51">
+        <v>864811036990211</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="3"/>
+      <c r="P15" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11526,27 +11778,53 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="51">
+        <v>866192037805791</v>
+      </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="2"/>
+      <c r="I16" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="53"/>
       <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="3"/>
+      <c r="P16" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="88"/>
+      <c r="V16" s="94"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11555,23 +11833,45 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="54"/>
+      <c r="B17" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="51">
+        <v>863586032942116</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="53">
+        <v>120000</v>
+      </c>
       <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="55"/>
+      <c r="P17" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="29"/>
       <c r="U17" s="15"/>
@@ -11582,23 +11882,49 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="B18" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="51">
+        <v>861694037971759</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="54"/>
+      <c r="I18" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="53"/>
       <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="55"/>
+      <c r="P18" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="29"/>
       <c r="U18" s="15"/>
@@ -11609,23 +11935,45 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="63"/>
+      <c r="B19" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="51">
+        <v>862631039246268</v>
+      </c>
       <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="68"/>
+      <c r="I19" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="J19" s="52"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="2"/>
+      <c r="K19" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="53"/>
       <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="55"/>
+      <c r="P19" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="29"/>
       <c r="U19" s="15"/>
@@ -11640,23 +11988,45 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="51">
+        <v>864811037268922</v>
+      </c>
       <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H20" s="50"/>
-      <c r="I20" s="68"/>
+      <c r="I20" s="66" t="s">
+        <v>104</v>
+      </c>
       <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="K20" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="53"/>
       <c r="O20" s="52"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="10"/>
+      <c r="P20" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="29"/>
       <c r="U20" s="15"/>
@@ -11665,7 +12035,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11679,7 +12049,7 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="69"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="1"/>
       <c r="K21" s="52"/>
       <c r="L21" s="1"/>
@@ -11697,7 +12067,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11711,7 +12081,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="69"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -11729,7 +12099,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11743,7 +12113,7 @@
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="68"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -11770,7 +12140,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="68"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -11790,19 +12160,19 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="49"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="58"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="54"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="2"/>
@@ -11821,19 +12191,19 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="49"/>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="52"/>
       <c r="K26" s="1"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52"/>
-      <c r="N26" s="54"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="2"/>
@@ -11857,15 +12227,15 @@
       <c r="C27" s="49"/>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="64"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="52"/>
       <c r="M27" s="52"/>
-      <c r="N27" s="54"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="2"/>
@@ -11892,7 +12262,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="68"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -11974,7 +12344,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12006,7 +12376,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12070,7 +12440,7 @@
       </c>
       <c r="W33" s="10">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12134,7 +12504,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12198,7 +12568,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12465,7 +12835,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12529,7 +12899,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12561,7 +12931,7 @@
       </c>
       <c r="W49" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12780,10 +13150,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="89" t="s">
+      <c r="V56" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="95">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12812,8 +13182,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="90"/>
-      <c r="W57" s="90"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12839,8 +13209,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="91"/>
-      <c r="W58" s="91"/>
+      <c r="V58" s="97"/>
+      <c r="W58" s="97"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14127,6 +14497,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14137,16 +14517,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
